--- a/src/test/resources/test-photo-import-file.xlsx
+++ b/src/test/resources/test-photo-import-file.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\BitBucket\HKAdBus2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B60E756-B4C7-4894-B456-9D8F7C14F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A57CBC-4012-4847-91CE-AFC57FF35552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{56102E84-7406-4AB6-AA5B-A1DDAAF702AE}"/>
   </bookViews>
   <sheets>
     <sheet name="test-photo-import-file" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="drop-down-lists" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'test-photo-import-file'!$A$1:$Z$68</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'test-photo-import-file'!$B$1:$AA$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="746">
   <si>
     <t>category_name_en</t>
   </si>
@@ -2256,13 +2256,43 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/RQk4Gc1kkk54XbgB1W6FMNHvPOVCWHdr3iOYTmJsb-_WwBpht0vvAmudskdQIBBHQBZZmQxxIhb1_BqUMw=w971-h685-rw-no</t>
+  </si>
+  <si>
+    <t>category_name_hashkey</t>
+  </si>
+  <si>
+    <t>bus_route_hashkey</t>
+  </si>
+  <si>
+    <t>location_en</t>
+  </si>
+  <si>
+    <t>location_zh</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>kr7295</t>
+  </si>
+  <si>
+    <t>inserted</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>HW7095</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52825443103_467d62b02a_h.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2270,16 +2300,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2287,13 +2345,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2426,8 +2501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98221922-D49B-4FA8-83AE-27683DBC3119}" name="test_photo_import_file" displayName="test_photo_import_file" ref="A1:Z68" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Z68" xr:uid="{98221922-D49B-4FA8-83AE-27683DBC3119}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98221922-D49B-4FA8-83AE-27683DBC3119}" name="test_photo_import_file" displayName="test_photo_import_file" ref="B1:AA68" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:AA68" xr:uid="{98221922-D49B-4FA8-83AE-27683DBC3119}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{CB83D672-5D5F-4837-8BC8-99F4443695A4}" uniqueName="1" name="category_name_en" queryTableFieldId="1" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{183C5A16-C3DB-4052-AEBA-750025438BB6}" uniqueName="2" name="category_name_zh" queryTableFieldId="2" dataDxfId="23"/>
@@ -2757,5499 +2832,7847 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76FB9FF-EDB7-4767-8C9A-6C43DC9E4587}">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="144.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="144.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>225</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>204</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" t="s">
         <v>78</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>58</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" t="s">
         <v>97</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" t="s">
         <v>98</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" t="s">
         <v>100</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" t="s">
         <v>82</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" t="s">
         <v>101</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" t="s">
         <v>102</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" t="s">
         <v>104</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" t="s">
         <v>105</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" t="s">
         <v>113</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>26</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" t="s">
         <v>113</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" t="s">
         <v>115</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" t="s">
         <v>116</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" t="s">
         <v>117</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" t="s">
         <v>118</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" t="s">
         <v>119</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>743</v>
+      </c>
+      <c r="B7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" t="s">
         <v>130</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" t="s">
         <v>131</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" t="s">
         <v>132</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" t="s">
         <v>133</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" t="s">
         <v>134</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" t="s">
         <v>135</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" t="s">
         <v>145</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" t="s">
         <v>146</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" t="s">
         <v>147</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>43</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" t="s">
         <v>148</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" t="s">
         <v>149</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" t="s">
         <v>151</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" t="s">
         <v>85</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" t="s">
         <v>152</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>743</v>
+      </c>
+      <c r="B9" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" t="s">
         <v>163</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" t="s">
         <v>165</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" t="s">
         <v>166</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" t="s">
         <v>164</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" t="s">
         <v>167</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" t="s">
         <v>169</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" t="s">
         <v>170</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" t="s">
         <v>48</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" t="s">
         <v>171</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
         <v>176</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" t="s">
         <v>78</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>58</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" t="s">
         <v>179</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" t="s">
         <v>180</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" t="s">
         <v>181</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" t="s">
         <v>182</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" t="s">
         <v>183</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" t="s">
         <v>48</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" t="s">
         <v>184</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B11" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" t="s">
         <v>143</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" t="s">
         <v>191</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" t="s">
         <v>147</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>54</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>79</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" t="s">
         <v>192</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" t="s">
         <v>193</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" t="s">
         <v>194</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" t="s">
         <v>196</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" t="s">
         <v>197</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" t="s">
         <v>48</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" t="s">
         <v>198</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" t="s">
         <v>204</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" t="s">
         <v>206</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" t="s">
         <v>207</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" t="s">
         <v>208</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" t="s">
         <v>209</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>71</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" t="s">
         <v>210</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" t="s">
         <v>211</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" t="s">
         <v>213</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" t="s">
         <v>214</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" t="s">
         <v>215</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" t="s">
         <v>48</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" t="s">
         <v>216</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" t="s">
         <v>223</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" t="s">
         <v>224</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" t="s">
         <v>225</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" t="s">
         <v>226</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" t="s">
         <v>227</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>196</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" t="s">
         <v>228</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" t="s">
         <v>229</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" t="s">
         <v>230</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" t="s">
         <v>231</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" t="s">
         <v>232</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" t="s">
         <v>233</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" t="s">
         <v>48</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" t="s">
         <v>234</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>743</v>
+      </c>
+      <c r="B14" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" t="s">
         <v>236</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" t="s">
         <v>237</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" t="s">
         <v>238</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" t="s">
         <v>239</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>315</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" t="s">
         <v>240</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" t="s">
         <v>241</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" t="s">
         <v>242</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" t="s">
         <v>243</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" t="s">
         <v>244</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" t="s">
         <v>245</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" t="s">
         <v>48</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B15" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" t="s">
         <v>222</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" t="s">
         <v>247</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" t="s">
         <v>248</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" t="s">
         <v>249</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" t="s">
         <v>250</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" t="s">
         <v>251</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>207</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" t="s">
         <v>254</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" t="s">
         <v>82</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" t="s">
         <v>255</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" t="s">
         <v>256</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" t="s">
         <v>196</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" t="s">
         <v>197</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" t="s">
         <v>48</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" t="s">
         <v>257</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" t="s">
         <v>223</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" t="s">
         <v>225</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" t="s">
         <v>258</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" t="s">
         <v>227</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>105</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" t="s">
         <v>259</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" t="s">
         <v>229</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" t="s">
         <v>260</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" t="s">
         <v>261</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" t="s">
         <v>262</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" t="s">
         <v>263</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" t="s">
         <v>48</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" t="s">
         <v>264</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" t="s">
         <v>217</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" t="s">
         <v>225</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" t="s">
         <v>258</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" t="s">
         <v>227</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>105</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" t="s">
         <v>259</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" t="s">
         <v>229</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" t="s">
         <v>260</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" t="s">
         <v>261</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" t="s">
         <v>262</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" t="s">
         <v>263</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" t="s">
         <v>48</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" t="s">
         <v>265</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>743</v>
+      </c>
+      <c r="B18" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" t="s">
         <v>271</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" t="s">
         <v>272</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" t="s">
         <v>274</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" t="s">
         <v>275</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" t="s">
         <v>276</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>11</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>252</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" t="s">
         <v>277</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" t="s">
         <v>278</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" t="s">
         <v>279</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" t="s">
         <v>280</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" t="s">
         <v>281</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" t="s">
         <v>282</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" t="s">
         <v>283</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B19" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" t="s">
         <v>286</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" t="s">
         <v>272</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" t="s">
         <v>273</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" t="s">
         <v>274</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" t="s">
         <v>287</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" t="s">
         <v>288</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>45</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" t="s">
         <v>178</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" t="s">
         <v>179</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" t="s">
         <v>180</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" t="s">
         <v>181</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" t="s">
         <v>182</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" t="s">
         <v>183</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" t="s">
         <v>48</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" t="s">
         <v>289</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>743</v>
+      </c>
+      <c r="B20" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>219</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" t="s">
         <v>290</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>291</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" t="s">
         <v>293</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" t="s">
         <v>294</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" t="s">
         <v>295</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" t="s">
         <v>296</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" t="s">
         <v>297</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" t="s">
         <v>298</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" t="s">
         <v>299</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" t="s">
         <v>300</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>61</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>252</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" t="s">
         <v>277</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" t="s">
         <v>278</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" t="s">
         <v>279</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" t="s">
         <v>280</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" t="s">
         <v>281</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" t="s">
         <v>282</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" t="s">
         <v>48</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" t="s">
         <v>301</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>743</v>
+      </c>
+      <c r="B21" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" t="s">
         <v>302</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
         <v>303</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" t="s">
         <v>304</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" t="s">
         <v>95</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" t="s">
         <v>96</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" t="s">
         <v>305</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" t="s">
         <v>98</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>12</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" t="s">
         <v>306</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" t="s">
         <v>307</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" t="s">
         <v>82</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" t="s">
         <v>214</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" t="s">
         <v>215</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" t="s">
         <v>308</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" t="s">
         <v>309</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" t="s">
         <v>310</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>311</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
         <v>312</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" t="s">
         <v>313</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" t="s">
         <v>95</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" t="s">
         <v>314</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" t="s">
         <v>98</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>55</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" t="s">
         <v>315</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" t="s">
         <v>316</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" t="s">
         <v>82</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" t="s">
         <v>232</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" t="s">
         <v>233</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" t="s">
         <v>317</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" t="s">
         <v>318</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="Y22" t="s">
         <v>48</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" t="s">
         <v>319</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B23" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>320</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
         <v>321</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" t="s">
         <v>322</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" t="s">
         <v>323</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" t="s">
         <v>324</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" t="s">
         <v>325</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" t="s">
         <v>326</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" t="s">
         <v>327</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>213</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" t="s">
         <v>131</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" t="s">
         <v>132</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" t="s">
         <v>133</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" t="s">
         <v>134</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" t="s">
         <v>67</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" t="s">
         <v>48</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" t="s">
         <v>328</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>743</v>
+      </c>
+      <c r="B24" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" t="s">
         <v>329</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" t="s">
         <v>331</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" t="s">
         <v>332</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" t="s">
         <v>333</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" t="s">
         <v>334</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" t="s">
         <v>335</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" t="s">
         <v>336</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>512</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" t="s">
         <v>337</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" t="s">
         <v>338</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" t="s">
         <v>82</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="U24" t="s">
         <v>167</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" t="s">
         <v>168</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" t="s">
         <v>339</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" t="s">
         <v>340</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" t="s">
         <v>48</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" t="s">
         <v>341</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>743</v>
+      </c>
+      <c r="B25" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" t="s">
         <v>342</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" t="s">
         <v>343</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" t="s">
         <v>344</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" t="s">
         <v>345</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" t="s">
         <v>346</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" t="s">
         <v>347</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" t="s">
         <v>348</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" t="s">
         <v>349</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>20</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" t="s">
         <v>79</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" t="s">
         <v>350</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" t="s">
         <v>351</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" t="s">
         <v>79</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="U25" t="s">
         <v>352</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="V25" t="s">
         <v>353</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" t="s">
         <v>103</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" t="s">
         <v>104</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="Y25" t="s">
         <v>48</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" t="s">
         <v>354</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AA25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>743</v>
+      </c>
+      <c r="B26" t="s">
         <v>355</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
         <v>357</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" t="s">
         <v>359</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" t="s">
         <v>360</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" t="s">
         <v>361</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" t="s">
         <v>362</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" t="s">
         <v>363</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" t="s">
         <v>364</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" t="s">
         <v>365</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" t="s">
         <v>366</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" t="s">
         <v>367</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" t="s">
         <v>368</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>168</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" t="s">
         <v>252</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" t="s">
         <v>369</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" t="s">
         <v>370</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" t="s">
         <v>371</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="U26" t="s">
         <v>370</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" t="s">
         <v>372</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" t="s">
         <v>370</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" t="s">
         <v>372</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="Y26" t="s">
         <v>48</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" t="s">
         <v>373</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>743</v>
+      </c>
+      <c r="B27" t="s">
         <v>374</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>375</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
         <v>376</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
         <v>377</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" t="s">
         <v>378</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" t="s">
         <v>379</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" t="s">
         <v>380</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" t="s">
         <v>78</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>9</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>79</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" t="s">
         <v>178</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" t="s">
         <v>179</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" t="s">
         <v>82</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="U27" t="s">
         <v>180</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" t="s">
         <v>181</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" t="s">
         <v>182</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" t="s">
         <v>183</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="Y27" t="s">
         <v>381</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" t="s">
         <v>382</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>743</v>
+      </c>
+      <c r="B28" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>384</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>386</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" t="s">
         <v>387</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" t="s">
         <v>388</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" t="s">
         <v>143</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" t="s">
         <v>235</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" t="s">
         <v>236</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" t="s">
         <v>237</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" t="s">
         <v>389</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" t="s">
         <v>239</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>216</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" t="s">
         <v>390</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" t="s">
         <v>391</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" t="s">
         <v>40</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" t="s">
         <v>339</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" t="s">
         <v>340</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" t="s">
         <v>262</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" t="s">
         <v>263</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" t="s">
         <v>48</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" t="s">
         <v>392</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>743</v>
+      </c>
+      <c r="B29" t="s">
         <v>393</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>394</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" t="s">
         <v>395</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>396</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" t="s">
         <v>397</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" t="s">
         <v>398</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" t="s">
         <v>399</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" t="s">
         <v>113</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>11</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="Q29" t="s">
         <v>79</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" t="s">
         <v>400</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" t="s">
         <v>401</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" t="s">
         <v>79</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" t="s">
         <v>402</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" t="s">
         <v>403</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" t="s">
         <v>279</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" t="s">
         <v>280</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" t="s">
         <v>48</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" t="s">
         <v>404</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>743</v>
+      </c>
+      <c r="B30" t="s">
         <v>405</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" t="s">
         <v>408</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" t="s">
         <v>409</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" t="s">
         <v>332</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" t="s">
         <v>333</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" t="s">
         <v>334</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" t="s">
         <v>411</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" t="s">
         <v>336</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>326</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" t="s">
         <v>412</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" t="s">
         <v>413</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="U30" t="s">
         <v>414</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" t="s">
         <v>415</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" t="s">
         <v>416</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" t="s">
         <v>417</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Y30" t="s">
         <v>48</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Z30" t="s">
         <v>418</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AA30" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>743</v>
+      </c>
+      <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" t="s">
         <v>419</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
         <v>420</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" t="s">
         <v>421</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" t="s">
         <v>95</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" t="s">
         <v>96</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" t="s">
         <v>422</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" t="s">
         <v>98</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>56</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" t="s">
         <v>79</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" t="s">
         <v>315</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" t="s">
         <v>316</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" t="s">
         <v>82</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" t="s">
         <v>232</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="V31" t="s">
         <v>233</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" t="s">
         <v>317</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" t="s">
         <v>318</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Y31" t="s">
         <v>48</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" t="s">
         <v>423</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AA31" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>743</v>
+      </c>
+      <c r="B32" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" t="s">
         <v>424</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" t="s">
         <v>425</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" t="s">
         <v>426</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" t="s">
         <v>143</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" t="s">
         <v>144</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" t="s">
         <v>235</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" t="s">
         <v>236</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" t="s">
         <v>237</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" t="s">
         <v>427</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" t="s">
         <v>239</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>406</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" t="s">
         <v>428</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" t="s">
         <v>429</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" t="s">
         <v>40</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" t="s">
         <v>430</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" t="s">
         <v>431</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" t="s">
         <v>432</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" t="s">
         <v>433</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="Y32" t="s">
         <v>48</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Z32" t="s">
         <v>434</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AA32" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>743</v>
+      </c>
+      <c r="B33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" t="s">
         <v>435</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" t="s">
         <v>436</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" t="s">
         <v>437</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" t="s">
         <v>58</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" t="s">
         <v>60</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" t="s">
         <v>438</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" t="s">
         <v>113</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>68</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" t="s">
         <v>315</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" t="s">
         <v>316</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" t="s">
         <v>82</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" t="s">
         <v>232</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="V33" t="s">
         <v>233</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" t="s">
         <v>317</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" t="s">
         <v>318</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="Y33" t="s">
         <v>48</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Z33" t="s">
         <v>439</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AA33" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B34" t="s">
         <v>440</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
         <v>441</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" t="s">
         <v>442</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" t="s">
         <v>443</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" t="s">
         <v>444</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" t="s">
         <v>445</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" t="s">
         <v>332</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" t="s">
         <v>333</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" t="s">
         <v>334</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" t="s">
         <v>446</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" t="s">
         <v>336</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>114</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="Q34" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" t="s">
         <v>447</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" t="s">
         <v>448</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="U34" t="s">
         <v>449</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="V34" t="s">
         <v>450</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" t="s">
         <v>279</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" t="s">
         <v>280</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="Y34" t="s">
         <v>48</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Z34" t="s">
         <v>451</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AA34" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>743</v>
+      </c>
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" t="s">
         <v>452</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" t="s">
         <v>453</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" t="s">
         <v>454</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" t="s">
         <v>144</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" t="s">
         <v>145</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" t="s">
         <v>455</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" t="s">
         <v>147</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>53</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="Q35" t="s">
         <v>79</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" t="s">
         <v>456</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" t="s">
         <v>457</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" t="s">
         <v>79</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="U35" t="s">
         <v>458</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="V35" t="s">
         <v>170</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" t="s">
         <v>279</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" t="s">
         <v>280</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="Y35" t="s">
         <v>48</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Z35" t="s">
         <v>459</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AA35" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>743</v>
+      </c>
+      <c r="B36" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" t="s">
         <v>460</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" t="s">
         <v>461</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" t="s">
         <v>462</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" t="s">
         <v>463</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" t="s">
         <v>464</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" t="s">
         <v>465</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" t="s">
         <v>466</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" t="s">
         <v>467</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>357</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="Q36" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" t="s">
         <v>468</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" t="s">
         <v>469</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" t="s">
         <v>40</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="U36" t="s">
         <v>470</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="V36" t="s">
         <v>471</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" t="s">
         <v>472</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" t="s">
         <v>473</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="Y36" t="s">
         <v>48</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" t="s">
         <v>474</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>743</v>
+      </c>
+      <c r="B37" t="s">
         <v>393</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>394</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" t="s">
         <v>395</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" t="s">
         <v>475</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" t="s">
         <v>477</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" t="s">
         <v>478</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" t="s">
         <v>479</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" t="s">
         <v>480</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" t="s">
         <v>481</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" t="s">
         <v>457</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>89</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="Q37" t="s">
         <v>164</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" t="s">
         <v>482</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" t="s">
         <v>483</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" t="s">
         <v>43</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="U37" t="s">
         <v>484</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" t="s">
         <v>485</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="W37" t="s">
         <v>486</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" t="s">
         <v>487</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="Y37" t="s">
         <v>48</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Z37" t="s">
         <v>488</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>743</v>
+      </c>
+      <c r="B38" t="s">
         <v>393</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" t="s">
         <v>395</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" t="s">
         <v>489</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" t="s">
         <v>490</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" t="s">
         <v>491</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" t="s">
         <v>143</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" t="s">
         <v>236</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" t="s">
         <v>237</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" t="s">
         <v>492</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" t="s">
         <v>239</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>199</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="Q38" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" t="s">
         <v>493</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" t="s">
         <v>494</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" t="s">
         <v>495</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="U38" t="s">
         <v>496</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="V38" t="s">
         <v>497</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="W38" t="s">
         <v>317</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" t="s">
         <v>318</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="Y38" t="s">
         <v>48</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Z38" t="s">
         <v>498</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AA38" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>743</v>
+      </c>
+      <c r="B39" t="s">
         <v>499</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>500</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" t="s">
         <v>501</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
         <v>502</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" t="s">
         <v>502</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" t="s">
         <v>503</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" t="s">
         <v>143</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" t="s">
         <v>144</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" t="s">
         <v>236</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" t="s">
         <v>237</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" t="s">
         <v>504</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" t="s">
         <v>239</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>181</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" t="s">
         <v>390</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="S39" t="s">
         <v>391</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="T39" t="s">
         <v>40</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="U39" t="s">
         <v>339</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="V39" t="s">
         <v>340</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="W39" t="s">
         <v>262</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" t="s">
         <v>263</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="Y39" t="s">
         <v>48</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Z39" t="s">
         <v>505</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="AA39" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>743</v>
+      </c>
+      <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" t="s">
         <v>506</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
         <v>507</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" t="s">
         <v>508</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" t="s">
         <v>59</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" t="s">
         <v>60</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" t="s">
         <v>61</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" t="s">
         <v>509</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" t="s">
         <v>147</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>96</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="Q40" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" t="s">
         <v>80</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="S40" t="s">
         <v>81</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" t="s">
         <v>82</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" t="s">
         <v>83</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="V40" t="s">
         <v>84</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" t="s">
         <v>85</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" t="s">
         <v>86</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="Y40" t="s">
         <v>48</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Z40" t="s">
         <v>510</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="AA40" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>743</v>
+      </c>
+      <c r="B41" t="s">
         <v>511</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>512</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" t="s">
         <v>513</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" t="s">
         <v>514</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" t="s">
         <v>515</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" t="s">
         <v>516</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" t="s">
         <v>37</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" t="s">
         <v>517</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" t="s">
         <v>518</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>11</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="Q41" t="s">
         <v>164</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" t="s">
         <v>519</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="S41" t="s">
         <v>520</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="T41" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="U41" t="s">
         <v>521</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="V41" t="s">
         <v>522</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="W41" t="s">
         <v>317</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" t="s">
         <v>318</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="Y41" t="s">
         <v>48</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Z41" t="s">
         <v>523</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AA41" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>743</v>
+      </c>
+      <c r="B42" t="s">
         <v>393</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" t="s">
         <v>524</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
         <v>525</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" t="s">
         <v>526</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" t="s">
         <v>143</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" t="s">
         <v>527</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" t="s">
         <v>528</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" t="s">
         <v>529</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" t="s">
         <v>530</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" t="s">
         <v>531</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>63</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="Q42" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" t="s">
         <v>532</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" t="s">
         <v>533</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="T42" t="s">
         <v>43</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="U42" t="s">
         <v>534</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="V42" t="s">
         <v>535</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="W42" t="s">
         <v>279</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" t="s">
         <v>280</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="Y42" t="s">
         <v>48</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Z42" t="s">
         <v>536</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="AA42" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>743</v>
+      </c>
+      <c r="B43" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" t="s">
         <v>537</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
         <v>538</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" t="s">
         <v>539</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" t="s">
         <v>540</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" t="s">
         <v>541</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" t="s">
         <v>542</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" t="s">
         <v>543</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" t="s">
         <v>544</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" t="s">
         <v>545</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" t="s">
         <v>546</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" t="s">
         <v>547</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>22</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" t="s">
         <v>548</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" t="s">
         <v>549</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="T43" t="s">
         <v>40</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" t="s">
         <v>470</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="V43" t="s">
         <v>471</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="W43" t="s">
         <v>550</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="X43" t="s">
         <v>551</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="Y43" t="s">
         <v>48</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Z43" t="s">
         <v>552</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AA43" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>743</v>
+      </c>
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" t="s">
         <v>553</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
         <v>553</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" t="s">
         <v>554</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" t="s">
         <v>555</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" t="s">
         <v>556</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" t="s">
         <v>557</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" t="s">
         <v>558</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" t="s">
         <v>559</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>14</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="Q44" t="s">
         <v>164</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" t="s">
         <v>560</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" t="s">
         <v>561</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="T44" t="s">
         <v>164</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="U44" t="s">
         <v>562</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="V44" t="s">
         <v>563</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="W44" t="s">
         <v>564</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="X44" t="s">
         <v>565</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="Y44" t="s">
         <v>48</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Z44" t="s">
         <v>566</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AA44" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>743</v>
+      </c>
+      <c r="B45" t="s">
         <v>393</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
         <v>394</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" t="s">
         <v>395</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" t="s">
         <v>567</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" t="s">
         <v>568</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" t="s">
         <v>569</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" t="s">
         <v>570</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" t="s">
         <v>571</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" t="s">
         <v>572</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" t="s">
         <v>573</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" t="s">
         <v>574</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>388</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" t="s">
         <v>532</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" t="s">
         <v>533</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" t="s">
         <v>43</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" t="s">
         <v>534</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="V45" t="s">
         <v>535</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" t="s">
         <v>279</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="X45" t="s">
         <v>280</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="Y45" t="s">
         <v>48</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Z45" t="s">
         <v>575</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="AA45" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>743</v>
+      </c>
+      <c r="B46" t="s">
         <v>383</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
         <v>384</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" t="s">
         <v>385</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" t="s">
         <v>576</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" t="s">
         <v>577</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" t="s">
         <v>578</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" t="s">
         <v>143</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" t="s">
         <v>144</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" t="s">
         <v>235</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" t="s">
         <v>236</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" t="s">
         <v>237</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" t="s">
         <v>579</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" t="s">
         <v>239</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>166</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" t="s">
         <v>580</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" t="s">
         <v>581</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" t="s">
         <v>495</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U46" t="s">
         <v>582</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="V46" t="s">
         <v>583</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="W46" t="s">
         <v>83</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="X46" t="s">
         <v>84</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="Y46" t="s">
         <v>48</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Z46" t="s">
         <v>584</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="AA46" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>743</v>
+      </c>
+      <c r="B47" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" t="s">
         <v>585</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" t="s">
         <v>586</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" t="s">
         <v>587</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" t="s">
         <v>36</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" t="s">
         <v>588</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" t="s">
         <v>518</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>7</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="Q47" t="s">
         <v>164</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" t="s">
         <v>589</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="S47" t="s">
         <v>590</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="T47" t="s">
         <v>43</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="U47" t="s">
         <v>591</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="V47" t="s">
         <v>592</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="W47" t="s">
         <v>593</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="X47" t="s">
         <v>594</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="Y47" t="s">
         <v>48</v>
       </c>
-      <c r="Y47" s="1" t="s">
+      <c r="Z47" t="s">
         <v>595</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="AA47" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>743</v>
+      </c>
+      <c r="B48" t="s">
         <v>393</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" t="s">
         <v>394</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" t="s">
         <v>395</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" t="s">
         <v>596</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" t="s">
         <v>597</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" t="s">
         <v>598</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" t="s">
         <v>33</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" t="s">
         <v>345</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" t="s">
         <v>346</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" t="s">
         <v>347</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" t="s">
         <v>599</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" t="s">
         <v>349</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>9</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="Q48" t="s">
         <v>79</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" t="s">
         <v>600</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S48" t="s">
         <v>349</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="T48" t="s">
         <v>79</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="U48" t="s">
         <v>601</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="V48" t="s">
         <v>602</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="W48" t="s">
         <v>562</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="X48" t="s">
         <v>563</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="Y48" t="s">
         <v>48</v>
       </c>
-      <c r="Y48" s="1" t="s">
+      <c r="Z48" t="s">
         <v>603</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="AA48" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>743</v>
+      </c>
+      <c r="B49" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" t="s">
         <v>175</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" t="s">
         <v>177</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" t="s">
         <v>293</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" t="s">
         <v>294</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" t="s">
         <v>295</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" t="s">
         <v>296</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" t="s">
         <v>297</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" t="s">
         <v>298</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" t="s">
         <v>604</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" t="s">
         <v>300</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>32</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="Q49" t="s">
         <v>252</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R49" t="s">
         <v>605</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="S49" t="s">
         <v>606</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="T49" t="s">
         <v>252</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="U49" t="s">
         <v>607</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="V49" t="s">
         <v>608</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="W49" t="s">
         <v>196</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="X49" t="s">
         <v>197</v>
       </c>
-      <c r="X49" s="1" t="s">
+      <c r="Y49" t="s">
         <v>48</v>
       </c>
-      <c r="Y49" s="1" t="s">
+      <c r="Z49" t="s">
         <v>609</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="AA49" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>743</v>
+      </c>
+      <c r="B50" t="s">
         <v>355</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" t="s">
         <v>356</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" t="s">
         <v>610</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" t="s">
         <v>611</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" t="s">
         <v>612</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" t="s">
         <v>555</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" t="s">
         <v>556</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" t="s">
         <v>557</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" t="s">
         <v>613</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" t="s">
         <v>559</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>1</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="Q50" t="s">
         <v>164</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" t="s">
         <v>560</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="S50" t="s">
         <v>561</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="T50" t="s">
         <v>164</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="U50" t="s">
         <v>564</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="V50" t="s">
         <v>565</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="W50" t="s">
         <v>196</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="X50" t="s">
         <v>197</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="Y50" t="s">
         <v>48</v>
       </c>
-      <c r="Y50" s="1" t="s">
+      <c r="Z50" t="s">
         <v>614</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="AA50" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>743</v>
+      </c>
+      <c r="B51" t="s">
         <v>440</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" t="s">
         <v>441</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" t="s">
         <v>442</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" t="s">
         <v>615</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" t="s">
         <v>616</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" t="s">
         <v>617</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" t="s">
         <v>142</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" t="s">
         <v>143</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" t="s">
         <v>144</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" t="s">
         <v>235</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" t="s">
         <v>236</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" t="s">
         <v>237</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" t="s">
         <v>618</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" t="s">
         <v>239</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>213</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="Q51" t="s">
         <v>40</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="R51" t="s">
         <v>619</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="S51" t="s">
         <v>620</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="T51" t="s">
         <v>40</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="U51" t="s">
         <v>262</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="V51" t="s">
         <v>263</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="W51" t="s">
         <v>83</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="X51" t="s">
         <v>84</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="Y51" t="s">
         <v>48</v>
       </c>
-      <c r="Y51" s="1" t="s">
+      <c r="Z51" t="s">
         <v>621</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="AA51" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>743</v>
+      </c>
+      <c r="B52" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" t="s">
         <v>622</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" t="s">
         <v>623</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" t="s">
         <v>624</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" t="s">
         <v>33</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" t="s">
         <v>478</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" t="s">
         <v>479</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" t="s">
         <v>480</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" t="s">
         <v>625</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" t="s">
         <v>39</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>27</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="Q52" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="R52" t="s">
         <v>589</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="S52" t="s">
         <v>590</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="T52" t="s">
         <v>43</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="U52" t="s">
         <v>591</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="V52" t="s">
         <v>592</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="W52" t="s">
         <v>593</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="X52" t="s">
         <v>594</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="Y52" t="s">
         <v>48</v>
       </c>
-      <c r="Y52" s="1" t="s">
+      <c r="Z52" t="s">
         <v>626</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="AA52" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>743</v>
+      </c>
+      <c r="B53" t="s">
         <v>393</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" t="s">
         <v>394</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" t="s">
         <v>395</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" t="s">
         <v>627</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" t="s">
         <v>628</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" t="s">
         <v>629</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" t="s">
         <v>33</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" t="s">
         <v>34</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" t="s">
         <v>478</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" t="s">
         <v>479</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" t="s">
         <v>480</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" t="s">
         <v>630</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" t="s">
         <v>631</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>9</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="Q53" t="s">
         <v>164</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" t="s">
         <v>277</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="S53" t="s">
         <v>278</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="T53" t="s">
         <v>43</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="U53" t="s">
         <v>279</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="V53" t="s">
         <v>280</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="W53" t="s">
         <v>281</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="X53" t="s">
         <v>282</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="Y53" t="s">
         <v>48</v>
       </c>
-      <c r="Y53" s="1" t="s">
+      <c r="Z53" t="s">
         <v>632</v>
       </c>
-      <c r="Z53" s="1" t="s">
+      <c r="AA53" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>743</v>
+      </c>
+      <c r="B54" t="s">
         <v>633</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" t="s">
         <v>634</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" t="s">
         <v>635</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" t="s">
         <v>636</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" t="s">
         <v>637</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" t="s">
         <v>638</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" t="s">
         <v>33</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" t="s">
         <v>95</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" t="s">
         <v>96</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" t="s">
         <v>639</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" t="s">
         <v>98</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>50</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="Q54" t="s">
         <v>79</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" t="s">
         <v>315</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="S54" t="s">
         <v>316</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="T54" t="s">
         <v>82</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="U54" t="s">
         <v>232</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="V54" t="s">
         <v>233</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="W54" t="s">
         <v>317</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" t="s">
         <v>318</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="Y54" t="s">
         <v>48</v>
       </c>
-      <c r="Y54" s="1" t="s">
+      <c r="Z54" t="s">
         <v>640</v>
       </c>
-      <c r="Z54" s="1" t="s">
+      <c r="AA54" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>743</v>
+      </c>
+      <c r="B55" t="s">
         <v>383</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" t="s">
         <v>384</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" t="s">
         <v>641</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" t="s">
         <v>642</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" t="s">
         <v>643</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" t="s">
         <v>33</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" t="s">
         <v>34</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" t="s">
         <v>94</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" t="s">
         <v>95</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" t="s">
         <v>96</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" t="s">
         <v>305</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" t="s">
         <v>98</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>12</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Q55" t="s">
         <v>79</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" t="s">
         <v>644</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="S55" t="s">
         <v>645</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="T55" t="s">
         <v>79</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="U55" t="s">
         <v>103</v>
       </c>
-      <c r="U55" s="1" t="s">
+      <c r="V55" t="s">
         <v>104</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="W55" t="s">
         <v>646</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="X55" t="s">
         <v>647</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="Y55" t="s">
         <v>48</v>
       </c>
-      <c r="Y55" s="1" t="s">
+      <c r="Z55" t="s">
         <v>648</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="AA55" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>743</v>
+      </c>
+      <c r="B56" t="s">
         <v>649</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" t="s">
         <v>650</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" t="s">
         <v>651</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" t="s">
         <v>652</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" t="s">
         <v>652</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" t="s">
         <v>653</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" t="s">
         <v>57</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" t="s">
         <v>58</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" t="s">
         <v>654</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" t="s">
         <v>655</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" t="s">
         <v>656</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" t="s">
         <v>657</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" t="s">
         <v>658</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>92</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="Q56" t="s">
         <v>40</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" t="s">
         <v>277</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="S56" t="s">
         <v>278</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="T56" t="s">
         <v>43</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="U56" t="s">
         <v>279</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="V56" t="s">
         <v>280</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="W56" t="s">
         <v>281</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" t="s">
         <v>282</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="Y56" t="s">
         <v>48</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Z56" t="s">
         <v>659</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AA56" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>743</v>
+      </c>
+      <c r="B57" t="s">
         <v>511</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" t="s">
         <v>512</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" t="s">
         <v>513</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" t="s">
         <v>660</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" t="s">
         <v>661</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" t="s">
         <v>662</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" t="s">
         <v>34</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" t="s">
         <v>35</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="L57" t="s">
         <v>36</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" t="s">
         <v>663</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" t="s">
         <v>518</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>5</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="Q57" t="s">
         <v>164</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" t="s">
         <v>589</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="S57" t="s">
         <v>590</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="T57" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="U57" t="s">
         <v>591</v>
       </c>
-      <c r="U57" s="1" t="s">
+      <c r="V57" t="s">
         <v>592</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="W57" t="s">
         <v>593</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="X57" t="s">
         <v>594</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="Y57" t="s">
         <v>48</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Z57" t="s">
         <v>664</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="AA57" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>743</v>
+      </c>
+      <c r="B58" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" t="s">
         <v>665</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" t="s">
         <v>666</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" t="s">
         <v>667</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" t="s">
         <v>32</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" t="s">
         <v>33</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" t="s">
         <v>272</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" t="s">
         <v>273</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" t="s">
         <v>274</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" t="s">
         <v>668</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" t="s">
         <v>288</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>51</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="Q58" t="s">
         <v>40</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" t="s">
         <v>669</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="S58" t="s">
         <v>670</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="T58" t="s">
         <v>40</v>
       </c>
-      <c r="T58" s="1" t="s">
+      <c r="U58" t="s">
         <v>432</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="V58" t="s">
         <v>433</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="W58" t="s">
         <v>671</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="X58" t="s">
         <v>672</v>
       </c>
-      <c r="X58" s="1" t="s">
+      <c r="Y58" t="s">
         <v>48</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Z58" t="s">
         <v>673</v>
       </c>
-      <c r="Z58" s="1" t="s">
+      <c r="AA58" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>743</v>
+      </c>
+      <c r="B59" t="s">
         <v>199</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" t="s">
         <v>674</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" t="s">
         <v>675</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" t="s">
         <v>676</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" t="s">
         <v>33</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" t="s">
         <v>34</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" t="s">
         <v>463</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" t="s">
         <v>464</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" t="s">
         <v>465</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" t="s">
         <v>677</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" t="s">
         <v>467</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>365</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="Q59" t="s">
         <v>40</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" t="s">
         <v>678</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="S59" t="s">
         <v>679</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="T59" t="s">
         <v>40</v>
       </c>
-      <c r="T59" s="1" t="s">
+      <c r="U59" t="s">
         <v>680</v>
       </c>
-      <c r="U59" s="1" t="s">
+      <c r="V59" t="s">
         <v>681</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="W59" t="s">
         <v>682</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="X59" t="s">
         <v>683</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="Y59" t="s">
         <v>48</v>
       </c>
-      <c r="Y59" s="1" t="s">
+      <c r="Z59" t="s">
         <v>684</v>
       </c>
-      <c r="Z59" s="1" t="s">
+      <c r="AA59" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>743</v>
+      </c>
+      <c r="B60" t="s">
         <v>405</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" t="s">
         <v>406</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>407</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" t="s">
         <v>685</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" t="s">
         <v>686</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" t="s">
         <v>33</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" t="s">
         <v>478</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" t="s">
         <v>479</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" t="s">
         <v>480</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" t="s">
         <v>687</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" t="s">
         <v>631</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>68</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="Q60" t="s">
         <v>164</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" t="s">
         <v>482</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="S60" t="s">
         <v>483</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="T60" t="s">
         <v>43</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="U60" t="s">
         <v>484</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="V60" t="s">
         <v>485</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="W60" t="s">
         <v>486</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="X60" t="s">
         <v>487</v>
       </c>
-      <c r="X60" s="1" t="s">
+      <c r="Y60" t="s">
         <v>48</v>
       </c>
-      <c r="Y60" s="1" t="s">
+      <c r="Z60" t="s">
         <v>688</v>
       </c>
-      <c r="Z60" s="1" t="s">
+      <c r="AA60" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>743</v>
+      </c>
+      <c r="B61" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" t="s">
         <v>690</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" t="s">
         <v>691</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" t="s">
         <v>142</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" t="s">
         <v>143</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" t="s">
         <v>144</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" t="s">
         <v>247</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" t="s">
         <v>248</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" t="s">
         <v>249</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" t="s">
         <v>692</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" t="s">
         <v>251</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>213</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="Q61" t="s">
         <v>252</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" t="s">
         <v>693</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="S61" t="s">
         <v>694</v>
       </c>
-      <c r="S61" s="1" t="s">
+      <c r="T61" t="s">
         <v>164</v>
       </c>
-      <c r="T61" s="1" t="s">
+      <c r="U61" t="s">
         <v>308</v>
       </c>
-      <c r="U61" s="1" t="s">
+      <c r="V61" t="s">
         <v>309</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="W61" t="s">
         <v>169</v>
       </c>
-      <c r="W61" s="1" t="s">
+      <c r="X61" t="s">
         <v>170</v>
       </c>
-      <c r="X61" s="1" t="s">
+      <c r="Y61" t="s">
         <v>48</v>
       </c>
-      <c r="Y61" s="1" t="s">
+      <c r="Z61" t="s">
         <v>695</v>
       </c>
-      <c r="Z61" s="1" t="s">
+      <c r="AA61" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>743</v>
+      </c>
+      <c r="B62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" t="s">
         <v>174</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" t="s">
         <v>419</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" t="s">
         <v>420</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" t="s">
         <v>421</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" t="s">
         <v>33</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" t="s">
         <v>272</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" t="s">
         <v>273</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" t="s">
         <v>274</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" t="s">
         <v>696</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" t="s">
         <v>276</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>73</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="Q62" t="s">
         <v>252</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" t="s">
         <v>580</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="S62" t="s">
         <v>581</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="T62" t="s">
         <v>495</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="U62" t="s">
         <v>83</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="V62" t="s">
         <v>84</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="W62" t="s">
         <v>697</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="X62" t="s">
         <v>583</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="Y62" t="s">
         <v>48</v>
       </c>
-      <c r="Y62" s="1" t="s">
+      <c r="Z62" t="s">
         <v>698</v>
       </c>
-      <c r="Z62" s="1" t="s">
+      <c r="AA62" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>743</v>
+      </c>
+      <c r="B63" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" t="s">
         <v>506</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" t="s">
         <v>507</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" t="s">
         <v>508</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" t="s">
         <v>142</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" t="s">
         <v>143</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" t="s">
         <v>144</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" t="s">
         <v>59</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" t="s">
         <v>60</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" t="s">
         <v>145</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" t="s">
         <v>699</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" t="s">
         <v>147</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>68</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="Q63" t="s">
         <v>79</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" t="s">
         <v>700</v>
       </c>
-      <c r="R63" s="1" t="s">
+      <c r="S63" t="s">
         <v>701</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="T63" t="s">
         <v>79</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="U63" t="s">
         <v>279</v>
       </c>
-      <c r="U63" s="1" t="s">
+      <c r="V63" t="s">
         <v>280</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="W63" t="s">
         <v>702</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="X63" t="s">
         <v>703</v>
       </c>
-      <c r="X63" s="1" t="s">
+      <c r="Y63" t="s">
         <v>48</v>
       </c>
-      <c r="Y63" s="1" t="s">
+      <c r="Z63" t="s">
         <v>704</v>
       </c>
-      <c r="Z63" s="1" t="s">
+      <c r="AA63" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>743</v>
+      </c>
+      <c r="B64" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" t="s">
         <v>92</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" t="s">
         <v>93</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" t="s">
         <v>33</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" t="s">
         <v>34</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" t="s">
         <v>94</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" t="s">
         <v>95</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" t="s">
         <v>96</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" t="s">
         <v>97</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" t="s">
         <v>98</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>24</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="Q64" t="s">
         <v>79</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" t="s">
         <v>644</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="S64" t="s">
         <v>645</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="T64" t="s">
         <v>79</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="U64" t="s">
         <v>103</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="V64" t="s">
         <v>104</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="W64" t="s">
         <v>646</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="X64" t="s">
         <v>647</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="Y64" t="s">
         <v>48</v>
       </c>
-      <c r="Y64" s="1" t="s">
+      <c r="Z64" t="s">
         <v>705</v>
       </c>
-      <c r="Z64" s="1" t="s">
+      <c r="AA64" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>743</v>
+      </c>
+      <c r="B65" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" t="s">
         <v>706</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" t="s">
         <v>707</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" t="s">
         <v>708</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" t="s">
         <v>32</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" t="s">
         <v>33</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" t="s">
         <v>478</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" t="s">
         <v>479</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" t="s">
         <v>480</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" t="s">
         <v>709</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" t="s">
         <v>39</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>1</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="Q65" t="s">
         <v>40</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="R65" t="s">
         <v>710</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="S65" t="s">
         <v>711</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="T65" t="s">
         <v>40</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="U65" t="s">
         <v>712</v>
       </c>
-      <c r="U65" s="1" t="s">
+      <c r="V65" t="s">
         <v>713</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="W65" t="s">
         <v>262</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="X65" t="s">
         <v>263</v>
       </c>
-      <c r="X65" s="1" t="s">
+      <c r="Y65" t="s">
         <v>48</v>
       </c>
-      <c r="Y65" s="1" t="s">
+      <c r="Z65" t="s">
         <v>714</v>
       </c>
-      <c r="Z65" s="1" t="s">
+      <c r="AA65" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>743</v>
+      </c>
+      <c r="B66" t="s">
         <v>440</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" t="s">
         <v>441</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" t="s">
         <v>715</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" t="s">
         <v>716</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" t="s">
         <v>717</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" t="s">
         <v>57</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" t="s">
         <v>58</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" t="s">
         <v>59</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" t="s">
         <v>60</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" t="s">
         <v>61</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" t="s">
         <v>718</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="O66" t="s">
         <v>63</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>42</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="Q66" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" t="s">
         <v>589</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="S66" t="s">
         <v>590</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T66" t="s">
         <v>43</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="U66" t="s">
         <v>591</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="V66" t="s">
         <v>592</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" t="s">
         <v>593</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="X66" t="s">
         <v>594</v>
       </c>
-      <c r="X66" s="1" t="s">
+      <c r="Y66" t="s">
         <v>48</v>
       </c>
-      <c r="Y66" s="1" t="s">
+      <c r="Z66" t="s">
         <v>719</v>
       </c>
-      <c r="Z66" s="1" t="s">
+      <c r="AA66" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>743</v>
+      </c>
+      <c r="B67" t="s">
         <v>440</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" t="s">
         <v>441</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" t="s">
         <v>442</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" t="s">
         <v>720</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" t="s">
         <v>721</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" t="s">
         <v>722</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" t="s">
         <v>293</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" t="s">
         <v>294</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" t="s">
         <v>295</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" t="s">
         <v>296</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" t="s">
         <v>297</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" t="s">
         <v>298</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" t="s">
         <v>723</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" t="s">
         <v>300</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>49</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="Q67" t="s">
         <v>252</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="R67" t="s">
         <v>277</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="S67" t="s">
         <v>278</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="T67" t="s">
         <v>43</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="U67" t="s">
         <v>279</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="V67" t="s">
         <v>280</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="W67" t="s">
         <v>281</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="X67" t="s">
         <v>282</v>
       </c>
-      <c r="X67" s="1" t="s">
+      <c r="Y67" t="s">
         <v>48</v>
       </c>
-      <c r="Y67" s="1" t="s">
+      <c r="Z67" t="s">
         <v>724</v>
       </c>
-      <c r="Z67" s="1" t="s">
+      <c r="AA67" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>743</v>
+      </c>
+      <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" t="s">
         <v>725</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" t="s">
         <v>726</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" t="s">
         <v>727</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" t="s">
         <v>34</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" t="s">
         <v>463</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" t="s">
         <v>464</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" t="s">
         <v>465</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" t="s">
         <v>728</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" t="s">
         <v>467</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>338</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="Q68" t="s">
         <v>40</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R68" t="s">
         <v>729</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="S68" t="s">
         <v>730</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="T68" t="s">
         <v>40</v>
       </c>
-      <c r="T68" s="1" t="s">
+      <c r="U68" t="s">
         <v>731</v>
       </c>
-      <c r="U68" s="1" t="s">
+      <c r="V68" t="s">
         <v>732</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="W68" t="s">
         <v>733</v>
       </c>
-      <c r="W68" s="1" t="s">
+      <c r="X68" t="s">
         <v>734</v>
       </c>
-      <c r="X68" s="1" t="s">
+      <c r="Y68" t="s">
         <v>48</v>
       </c>
-      <c r="Y68" s="1" t="s">
+      <c r="Z68" t="s">
         <v>735</v>
       </c>
-      <c r="Z68" s="1" t="s">
+      <c r="AA68" t="s">
         <v>735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" t="s">
+        <v>478</v>
+      </c>
+      <c r="L69" t="s">
+        <v>479</v>
+      </c>
+      <c r="M69" t="s">
+        <v>480</v>
+      </c>
+      <c r="N69" t="s">
+        <v>744</v>
+      </c>
+      <c r="O69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P69">
+        <v>32</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s">
+        <v>710</v>
+      </c>
+      <c r="S69" t="s">
+        <v>711</v>
+      </c>
+      <c r="T69" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s">
+        <v>712</v>
+      </c>
+      <c r="V69" t="s">
+        <v>713</v>
+      </c>
+      <c r="W69" t="s">
+        <v>262</v>
+      </c>
+      <c r="X69" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6C64D2C-4C6D-4214-810A-0DE89128292C}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$A$2:$A$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21D84F95-DE7B-4035-9715-9A73C87DB3AD}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$B$2:$B$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{955F63D4-08DA-424B-9E04-633B4694A3A8}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$C$2:$C$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{785E9775-0C2D-4774-911C-9D136ABE7221}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$D$2:$D$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9640F75-799F-450B-8B0D-E2DF300E7A4C}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$E$2:$E$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{099A19B8-8AC1-40E4-A74B-11231074335B}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$F$2:$F$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ED82AAB1-B3D6-45B1-AFA6-4853634281BD}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$G$2:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C27A649-5AA4-4993-A7DE-CEFAF79A9E17}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$H$2:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D62FB69-B6AB-41F1-A333-400D1DC231B8}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$I$2:$I$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07D72B70-2B47-4505-8E2F-2E6CA04F14C8}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$J$2:$J$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B70DA6D2-D5FF-4C7B-A50F-CEA50A906D98}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$K$2:$K$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9270DD6-7D66-4B01-9692-642F66955AFD}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$L$2:$L$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75E2AF91-B5E6-4B92-B792-618B80E11BDC}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$M$2:$M$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEA1AE28-BD69-4D10-9E56-DA3863FCF56C}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$N$2:$N$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDD0D972-7A54-4996-AE47-F8C4B8010DCC}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$O$2:$O$47</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3AA2945-3985-4D07-A4C8-EFE593025A38}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$P$2:$P$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9ADEBABB-75B1-4030-8978-994442968EBA}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$Q$2:$Q$62</xm:f>
+          </x14:formula1>
+          <xm:sqref>U2:U69 W2:W69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BDC81DFF-5B87-4B9E-8308-E22449A4AEE9}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$R$2:$R$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>V2:V69 X2:X69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7607B19-7085-4E72-AF7B-FBF07D29E7AB}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$S$2:$S$62</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEC6F5BF-67CD-4F79-9920-DCF59EC185F3}">
+          <x14:formula1>
+            <xm:f>'drop-down-lists'!$T$2:$T$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5D9567-2362-4846-9FD9-68B1D3610A5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" t="s">
+        <v>544</v>
+      </c>
+      <c r="L2" t="s">
+        <v>366</v>
+      </c>
+      <c r="M2" t="s">
+        <v>457</v>
+      </c>
+      <c r="N2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" t="s">
+        <v>605</v>
+      </c>
+      <c r="P2" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>484</v>
+      </c>
+      <c r="R2" t="s">
+        <v>372</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>463</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M3" t="s">
+        <v>631</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P3" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>416</v>
+      </c>
+      <c r="R3" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" t="s">
+        <v>740</v>
+      </c>
+      <c r="T3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" t="s">
+        <v>465</v>
+      </c>
+      <c r="M4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>607</v>
+      </c>
+      <c r="R4" t="s">
+        <v>318</v>
+      </c>
+      <c r="S4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>541</v>
+      </c>
+      <c r="I6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" t="s">
+        <v>556</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
+        <v>518</v>
+      </c>
+      <c r="O6" t="s">
+        <v>447</v>
+      </c>
+      <c r="P6" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>352</v>
+      </c>
+      <c r="R6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M7" t="s">
+        <v>559</v>
+      </c>
+      <c r="O7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>402</v>
+      </c>
+      <c r="R7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>508</v>
+      </c>
+      <c r="J8" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" t="s">
+        <v>655</v>
+      </c>
+      <c r="L8" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" t="s">
+        <v>574</v>
+      </c>
+      <c r="O8" t="s">
+        <v>589</v>
+      </c>
+      <c r="P8" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>196</v>
+      </c>
+      <c r="R8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" t="s">
+        <v>686</v>
+      </c>
+      <c r="F9" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" t="s">
+        <v>528</v>
+      </c>
+      <c r="L9" t="s">
+        <v>557</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>532</v>
+      </c>
+      <c r="P9" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>317</v>
+      </c>
+      <c r="R9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" t="s">
+        <v>292</v>
+      </c>
+      <c r="J10" t="s">
+        <v>296</v>
+      </c>
+      <c r="K10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" t="s">
+        <v>493</v>
+      </c>
+      <c r="P10" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>562</v>
+      </c>
+      <c r="R10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F11" t="s">
+        <v>360</v>
+      </c>
+      <c r="J11" t="s">
+        <v>543</v>
+      </c>
+      <c r="K11" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" t="s">
+        <v>480</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>519</v>
+      </c>
+      <c r="P11" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>682</v>
+      </c>
+      <c r="R12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" t="s">
+        <v>477</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" t="s">
+        <v>349</v>
+      </c>
+      <c r="O13" t="s">
+        <v>306</v>
+      </c>
+      <c r="P13" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>534</v>
+      </c>
+      <c r="R13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" t="s">
+        <v>273</v>
+      </c>
+      <c r="L14" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>339</v>
+      </c>
+      <c r="R14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>720</v>
+      </c>
+      <c r="E15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" t="s">
+        <v>722</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" t="s">
+        <v>288</v>
+      </c>
+      <c r="O15" t="s">
+        <v>315</v>
+      </c>
+      <c r="P15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>731</v>
+      </c>
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" t="s">
+        <v>715</v>
+      </c>
+      <c r="E16" t="s">
+        <v>623</v>
+      </c>
+      <c r="F16" t="s">
+        <v>717</v>
+      </c>
+      <c r="J16" t="s">
+        <v>527</v>
+      </c>
+      <c r="K16" t="s">
+        <v>464</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="s">
+        <v>327</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>529</v>
+      </c>
+      <c r="M17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>482</v>
+      </c>
+      <c r="P17" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>646</v>
+      </c>
+      <c r="R17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>570</v>
+      </c>
+      <c r="K18" t="s">
+        <v>346</v>
+      </c>
+      <c r="L18" t="s">
+        <v>545</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>702</v>
+      </c>
+      <c r="R18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>641</v>
+      </c>
+      <c r="E19" t="s">
+        <v>666</v>
+      </c>
+      <c r="F19" t="s">
+        <v>643</v>
+      </c>
+      <c r="J19" t="s">
+        <v>654</v>
+      </c>
+      <c r="K19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19" t="s">
+        <v>336</v>
+      </c>
+      <c r="O19" t="s">
+        <v>456</v>
+      </c>
+      <c r="P19" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>255</v>
+      </c>
+      <c r="R19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" t="s">
+        <v>453</v>
+      </c>
+      <c r="F20" t="s">
+        <v>454</v>
+      </c>
+      <c r="J20" t="s">
+        <v>555</v>
+      </c>
+      <c r="K20" t="s">
+        <v>571</v>
+      </c>
+      <c r="L20" t="s">
+        <v>656</v>
+      </c>
+      <c r="M20" t="s">
+        <v>658</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>470</v>
+      </c>
+      <c r="R20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" t="s">
+        <v>421</v>
+      </c>
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" t="s">
+        <v>334</v>
+      </c>
+      <c r="M21" t="s">
+        <v>531</v>
+      </c>
+      <c r="O21" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>212</v>
+      </c>
+      <c r="R21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>665</v>
+      </c>
+      <c r="E22" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" t="s">
+        <v>617</v>
+      </c>
+      <c r="J22" t="s">
+        <v>478</v>
+      </c>
+      <c r="K22" t="s">
+        <v>297</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" t="s">
+        <v>276</v>
+      </c>
+      <c r="O22" t="s">
+        <v>700</v>
+      </c>
+      <c r="P22" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>279</v>
+      </c>
+      <c r="R22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D23" t="s">
+        <v>615</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M23" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" t="s">
+        <v>400</v>
+      </c>
+      <c r="P23" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>521</v>
+      </c>
+      <c r="R23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" t="s">
+        <v>667</v>
+      </c>
+      <c r="L24" t="s">
+        <v>572</v>
+      </c>
+      <c r="M24" t="s">
+        <v>547</v>
+      </c>
+      <c r="O24" t="s">
+        <v>600</v>
+      </c>
+      <c r="P24" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>281</v>
+      </c>
+      <c r="R24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>537</v>
+      </c>
+      <c r="E25" t="s">
+        <v>586</v>
+      </c>
+      <c r="F25" t="s">
+        <v>437</v>
+      </c>
+      <c r="M25" t="s">
+        <v>300</v>
+      </c>
+      <c r="O25" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" t="s">
+        <v>612</v>
+      </c>
+      <c r="M26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" t="s">
+        <v>350</v>
+      </c>
+      <c r="P26" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>486</v>
+      </c>
+      <c r="R26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>610</v>
+      </c>
+      <c r="E27" t="s">
+        <v>721</v>
+      </c>
+      <c r="F27" t="s">
+        <v>539</v>
+      </c>
+      <c r="M27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>644</v>
+      </c>
+      <c r="P27" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>242</v>
+      </c>
+      <c r="R27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" t="s">
+        <v>467</v>
+      </c>
+      <c r="O28" t="s">
+        <v>390</v>
+      </c>
+      <c r="P28" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>180</v>
+      </c>
+      <c r="R28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>707</v>
+      </c>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+      <c r="M29" t="s">
+        <v>368</v>
+      </c>
+      <c r="O29" t="s">
+        <v>710</v>
+      </c>
+      <c r="P29" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>550</v>
+      </c>
+      <c r="R29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" t="s">
+        <v>726</v>
+      </c>
+      <c r="F30" t="s">
+        <v>526</v>
+      </c>
+      <c r="O30" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>150</v>
+      </c>
+      <c r="R30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>642</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" t="s">
+        <v>412</v>
+      </c>
+      <c r="P31" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>593</v>
+      </c>
+      <c r="R31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" t="s">
+        <v>525</v>
+      </c>
+      <c r="F32" t="s">
+        <v>598</v>
+      </c>
+      <c r="O32" t="s">
+        <v>678</v>
+      </c>
+      <c r="P32" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>458</v>
+      </c>
+      <c r="R32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>685</v>
+      </c>
+      <c r="E33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>169</v>
+      </c>
+      <c r="R33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>611</v>
+      </c>
+      <c r="F34" t="s">
+        <v>322</v>
+      </c>
+      <c r="O34" t="s">
+        <v>259</v>
+      </c>
+      <c r="P34" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>449</v>
+      </c>
+      <c r="R34" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>553</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>554</v>
+      </c>
+      <c r="O35" t="s">
+        <v>468</v>
+      </c>
+      <c r="P35" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>502</v>
+      </c>
+      <c r="E36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" t="s">
+        <v>503</v>
+      </c>
+      <c r="O36" t="s">
+        <v>428</v>
+      </c>
+      <c r="P36" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>167</v>
+      </c>
+      <c r="R36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+      <c r="O37" t="s">
+        <v>669</v>
+      </c>
+      <c r="P37" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>582</v>
+      </c>
+      <c r="R37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>567</v>
+      </c>
+      <c r="E38" t="s">
+        <v>637</v>
+      </c>
+      <c r="F38" t="s">
+        <v>569</v>
+      </c>
+      <c r="O38" t="s">
+        <v>548</v>
+      </c>
+      <c r="P38" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>712</v>
+      </c>
+      <c r="R38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O39" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>214</v>
+      </c>
+      <c r="R39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>377</v>
+      </c>
+      <c r="E40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>496</v>
+      </c>
+      <c r="R40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>622</v>
+      </c>
+      <c r="E41" t="s">
+        <v>568</v>
+      </c>
+      <c r="F41" t="s">
+        <v>624</v>
+      </c>
+      <c r="O41" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>182</v>
+      </c>
+      <c r="R41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+      <c r="O42" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>601</v>
+      </c>
+      <c r="R42" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>627</v>
+      </c>
+      <c r="E43" t="s">
+        <v>628</v>
+      </c>
+      <c r="F43" t="s">
+        <v>629</v>
+      </c>
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>103</v>
+      </c>
+      <c r="R43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>725</v>
+      </c>
+      <c r="E44" t="s">
+        <v>461</v>
+      </c>
+      <c r="F44" t="s">
+        <v>727</v>
+      </c>
+      <c r="O44" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>591</v>
+      </c>
+      <c r="R44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="s">
+        <v>661</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="O45" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>85</v>
+      </c>
+      <c r="R45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46" t="s">
+        <v>675</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="O46" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>262</v>
+      </c>
+      <c r="R46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>636</v>
+      </c>
+      <c r="E47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" t="s">
+        <v>638</v>
+      </c>
+      <c r="O47" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>430</v>
+      </c>
+      <c r="R47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>564</v>
+      </c>
+      <c r="R48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>66</v>
+      </c>
+      <c r="R49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>432</v>
+      </c>
+      <c r="R50" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" t="s">
+        <v>716</v>
+      </c>
+      <c r="F51" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>680</v>
+      </c>
+      <c r="R51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>674</v>
+      </c>
+      <c r="E52" t="s">
+        <v>616</v>
+      </c>
+      <c r="F52" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>260</v>
+      </c>
+      <c r="R52" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>689</v>
+      </c>
+      <c r="E53" t="s">
+        <v>597</v>
+      </c>
+      <c r="F53" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>370</v>
+      </c>
+      <c r="R53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>308</v>
+      </c>
+      <c r="R54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>443</v>
+      </c>
+      <c r="E55" t="s">
+        <v>690</v>
+      </c>
+      <c r="F55" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>194</v>
+      </c>
+      <c r="R55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" t="s">
+        <v>515</v>
+      </c>
+      <c r="F56" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>230</v>
+      </c>
+      <c r="R56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>706</v>
+      </c>
+      <c r="E57" t="s">
+        <v>538</v>
+      </c>
+      <c r="F57" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>472</v>
+      </c>
+      <c r="R57" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>660</v>
+      </c>
+      <c r="E58" t="s">
+        <v>476</v>
+      </c>
+      <c r="F58" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>697</v>
+      </c>
+      <c r="R58" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>576</v>
+      </c>
+      <c r="E59" t="s">
+        <v>436</v>
+      </c>
+      <c r="F59" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>414</v>
+      </c>
+      <c r="R59" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>408</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>733</v>
+      </c>
+      <c r="R60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>671</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q3:Q118">
+    <sortCondition ref="Q2:Q118"/>
+  </sortState>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R50:R60" xr:uid="{EDD1B3D1-923A-40B9-8474-D249E04DAD8D}">
+      <formula1>$R$2:$R$49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q52:Q62" xr:uid="{A8888CFE-0AE2-4EEE-99E1-E3B1001911F6}">
+      <formula1>$Q$2:$Q$51</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
